--- a/biology/Botanique/Triomphe_de_Vienne/Triomphe_de_Vienne.xlsx
+++ b/biology/Botanique/Triomphe_de_Vienne/Triomphe_de_Vienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Triomphe de Vienne est le nom d'une variété de poire.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété a été obtenue par Jean Collaud en 1864 et propagée par Claude Blanchet, horticulteur à Vienne (Isère)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété a été obtenue par Jean Collaud en 1864 et propagée par Claude Blanchet, horticulteur à Vienne (Isère).
 </t>
         </is>
       </c>
@@ -544,15 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description de l'arbre
-L'arbre est de bonne vigueur, peu sensible à la tavelure. Sa floraison intervient début avril, à l'abri des gelées, avec une fructification à maturité dès septembre[1]. 
-Sa sensibilité est signalée au feu bactérien[2].
-Description du fruit
-La poire est très sucrée, agréablement parfumée, de très bonne qualité gustative.
-Sa couleur jaune doré à maturité, parfois teintée de rose à l'insolation, facilite son identification[1].
-Le code PLU du fruit est 3026.
-Maturité
-Avec une floraison apparaissant en moyenne saison et une cueillette préconisée fin août, la maturité est obtenue en septembre[1].
+          <t>Description de l'arbre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est de bonne vigueur, peu sensible à la tavelure. Sa floraison intervient début avril, à l'abri des gelées, avec une fructification à maturité dès septembre. 
+Sa sensibilité est signalée au feu bactérien.
 </t>
         </is>
       </c>
@@ -578,14 +591,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description du fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire est très sucrée, agréablement parfumée, de très bonne qualité gustative.
+Sa couleur jaune doré à maturité, parfois teintée de rose à l'insolation, facilite son identification.
+Le code PLU du fruit est 3026.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Triomphe_de_Vienne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triomphe_de_Vienne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maturité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec une floraison apparaissant en moyenne saison et une cueillette préconisée fin août, la maturité est obtenue en septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Triomphe_de_Vienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triomphe_de_Vienne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Convient à la haute-tige et aux formes basses.
 Autofertile, il pollinise les variétés voisines du verger. 
-L'arbre est peu sensible à la tavelure sur bois, fruits et feuilles[1].
+L'arbre est peu sensible à la tavelure sur bois, fruits et feuilles.
 </t>
         </is>
       </c>
